--- a/Spreadsheets/taunt_wild_format.xlsx
+++ b/Spreadsheets/taunt_wild_format.xlsx
@@ -766,7 +766,7 @@
     <t>&lt;b&gt;Taunt&lt;/b&gt;\n&lt;b&gt;Deathrattle:&lt;/b&gt; Add 'The First Seal' to your hand.</t>
   </si>
   <si>
-    <t>[x]&lt;b&gt;Taunt&lt;/b&gt;\nWhen you draw this, restore\n4 Health to your hero.</t>
+    <t>[x]&lt;b&gt;Taunt&lt;/b&gt;\nWhen you draw this, restore\n#4 Health to your hero.</t>
   </si>
   <si>
     <t>&lt;b&gt;Taunt&lt;/b&gt;. &lt;b&gt;Battlecry:&lt;/b&gt; Draw cards until you draw one that isn't a Dragon.</t>
